--- a/pred_ohlcv/54_21/2019-10-18 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 LBA ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-35868.53091735538</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-35868.53091735538</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>12731.46908264462</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-609552.8571173555</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-488160.1507173554</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-488160.1507173554</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-488160.1507173554</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-488160.1507173554</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-240251.5329173554</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>150104.8727826446</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>562908.9812826446</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>134751.7379826446</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>134751.7379826446</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>467596.3042826446</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>467596.3042826446</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>445287.1300826446</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>478708.3611826446</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>580427.3084826446</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>584478.4834826447</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>909703.3694826446</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>792529.8576826446</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>685981.7999826446</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-686165.2943173554</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-897577.8011173554</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-712922.3811173553</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-712922.3811173553</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-478686.8775760509</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-642157.6236760509</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-642157.6236760509</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-546772.379676051</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-546772.379676051</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-606445.7229760509</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-606445.7229760509</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-556672.6579760509</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-698859.7499760508</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-698859.7499760508</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>170119.8110239492</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-318359.6647651125</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-232255.1189945776</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-199830.4649906208</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-264434.4229906208</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-264434.4229906208</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-149546.0853906208</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-403472.6777906208</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-403472.6777906208</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-435009.2256141502</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-415629.5505376796</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-454566.5137376796</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-377090.0746376796</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-377090.0746376796</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-395472.2730376796</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-250033.4805376795</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-250033.4805376795</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-250033.4805376795</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-250033.4805376795</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-254696.3953376795</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-86282.66643767955</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-87774.94163767956</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-86541.19163767956</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-89868.58573767956</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-22765.44463767957</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-22765.44463767957</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-22765.44463767957</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-63451.59683767956</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-63451.59683767956</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-42165.90343767956</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-42165.90343767956</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-42165.90343767956</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-42165.90343767956</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-42165.90343767956</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-98704.90043767956</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>37234.63266232044</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-14567.76873767957</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>78436.17696232043</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-62598.54823767956</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-62598.54823767956</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-84543.62173767955</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-282425.2094376796</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-175454.9918376796</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-296230.0428376796</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-18 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 LBA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-35868.53091735538</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,7 +548,7 @@
         <v>12731.46908264462</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>12731.46908264462</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>12731.46908264462</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-609552.8571173555</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-240226.2104173554</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-259059.6148173554</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-249638.6148173554</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-288587.6148173554</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-288587.6148173554</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-288577.6148173554</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-291462.6448173554</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-291462.6448173554</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-78056.26201735545</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-78046.26201735545</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-78046.26201735545</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-78046.26201735545</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-84745.13291735544</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-158493.1329173555</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-207653.1329173555</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-183073.1329173555</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-183073.1329173555</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-183073.1329173555</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-183073.1329173555</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-133410.8190173554</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-133410.8190173554</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-136010.8190173554</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-136010.8190173554</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>150104.8727826446</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>562908.9812826446</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>134751.7379826446</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>134751.7379826446</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>467596.3042826446</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>467596.3042826446</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>445287.1300826446</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>478708.3611826446</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>580427.3084826446</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>584478.4834826447</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>909703.3694826446</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>792529.8576826446</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>685981.7999826446</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-686165.2943173554</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-654569.0855173554</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-897577.8011173554</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-712922.3811173553</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-712922.3811173553</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-478686.8775760509</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-642157.6236760509</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-642157.6236760509</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-546772.379676051</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-546772.379676051</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-606445.7229760509</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-606445.7229760509</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-556672.6579760509</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-698859.7499760508</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-698859.7499760508</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-318359.6647651125</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-232255.1189945776</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-199830.4649906208</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-264434.4229906208</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-264434.4229906208</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-75137.69799062077</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-149546.0853906208</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-403472.6777906208</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-403472.6777906208</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-435009.2256141502</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-415629.5505376796</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-454566.5137376796</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-395472.2730376796</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-250033.4805376795</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-254696.3953376795</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-86282.66643767955</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-86282.66643767955</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-87774.94163767956</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-86541.19163767956</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-89868.58573767956</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-22765.44463767957</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-22765.44463767957</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-63451.59683767956</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-63451.59683767956</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-42165.90343767956</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-42165.90343767956</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-42165.90343767956</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-42165.90343767956</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-42165.90343767956</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-98704.90043767956</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>37234.63266232044</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-14567.76873767957</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>78436.17696232043</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-62598.54823767956</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-62598.54823767956</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-84543.62173767955</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-282425.2094376796</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-175454.9918376796</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-296230.0428376796</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
